--- a/40_prepare_exam/S3650_Checklist_Eksamen.xlsx
+++ b/40_prepare_exam/S3650_Checklist_Eksamen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\AspIT_Python\40_prepare_exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klae0061\PycharmProjects\S2\40_prepare_exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_95568346DF67E5EB8120FF3C72B4EAD97BB1BBCB" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AEA6D309-4C2B-420D-90D7-B43D04E33CC9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60796E50-A548-4358-9F6B-242878BC50F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Database</t>
   </si>
@@ -121,6 +121,66 @@
   </si>
   <si>
     <t>Hvad indeholder tabellens rækker og kolonner?</t>
+  </si>
+  <si>
+    <t>a class is a mix of attrbutes and method</t>
+  </si>
+  <si>
+    <t>the method that get's called when an object gets created</t>
+  </si>
+  <si>
+    <t>the class is the defenition while the objects are a spicific vertion of the class defined in the program</t>
+  </si>
+  <si>
+    <t>a function within a class</t>
+  </si>
+  <si>
+    <t>a vareble within a class</t>
+  </si>
+  <si>
+    <t>when you let a class use anothes methods</t>
+  </si>
+  <si>
+    <t>to not have to wright as much</t>
+  </si>
+  <si>
+    <t>when two classes uses the same name for different metods</t>
+  </si>
+  <si>
+    <t>when you put __ on both sides of the name. Just a formality dosn't actually do anything</t>
+  </si>
+  <si>
+    <t>because then diferent things can happen depending on what you put into a function</t>
+  </si>
+  <si>
+    <t>to know what not to use outside the class</t>
+  </si>
+  <si>
+    <t>any part of the gui</t>
+  </si>
+  <si>
+    <t>in a grid</t>
+  </si>
+  <si>
+    <t>command=______</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the main atrbute of a peace of data </t>
+  </si>
+  <si>
+    <t>the primekey from a different database than</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a standardized programming language that is used to manage relational databases and perform various operations on the data in them.</t>
+  </si>
+  <si>
+    <t>what you should do if the thing it's trying to do dosen't work</t>
+  </si>
+  <si>
+    <t>try to do that if it didn't work do this</t>
+  </si>
+  <si>
+    <t>a data that refers to a different table</t>
   </si>
 </sst>
 </file>
@@ -545,7 +605,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -597,7 +657,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -804,25 +864,25 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="77.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="77.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5546875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="23.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="77.88671875" style="1"/>
+    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="23.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="77.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
@@ -831,7 +891,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="9" t="s">
         <v>30</v>
@@ -841,7 +901,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="12" t="s">
         <v>0</v>
@@ -851,7 +911,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="14" t="s">
         <v>1</v>
@@ -861,7 +921,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -871,7 +931,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="26" t="s">
         <v>4</v>
@@ -881,7 +941,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="16" t="s">
         <v>2</v>
@@ -891,7 +951,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="9" t="s">
         <v>29</v>
@@ -901,117 +961,139 @@
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="9" t="s">
         <v>3</v>
@@ -1021,37 +1103,43 @@
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="E24" s="17"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="9" t="s">
         <v>0</v>
@@ -1061,17 +1149,19 @@
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="20" t="s">
         <v>31</v>
@@ -1081,37 +1171,43 @@
       <c r="E27" s="8"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="22" t="s">
         <v>25</v>
@@ -1121,7 +1217,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="9" t="s">
         <v>2</v>
@@ -1131,23 +1227,27 @@
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
     </row>
